--- a/TRAPPIST-1_data.xlsx
+++ b/TRAPPIST-1_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brackham/Dropbox/Outreach/20190603_Project-POEM/Project-POEM-Activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D88A5BD-8604-EC40-9DA8-7ABE74198C22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF38C4CF-94E9-544F-A610-F4DEC6C6052A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="460" windowWidth="22920" windowHeight="26720" xr2:uid="{03EF1662-41C5-FA42-B36B-C599710DCF4B}"/>
+    <workbookView xWindow="19400" yWindow="460" windowWidth="22920" windowHeight="26720" activeTab="1" xr2:uid="{03EF1662-41C5-FA42-B36B-C599710DCF4B}"/>
   </bookViews>
   <sheets>
     <sheet name="transit depths" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>planet</t>
   </si>
@@ -70,10 +70,16 @@
     <t>TRAPPIST-1 orbital periods (days)</t>
   </si>
   <si>
-    <t>orbital period (days)</t>
-  </si>
-  <si>
     <t>equilibrium temperature (K)</t>
+  </si>
+  <si>
+    <t>depth ranking (1 to 7)</t>
+  </si>
+  <si>
+    <t>orbital period estimate (days)</t>
+  </si>
+  <si>
+    <t>measured orbital period (days)</t>
   </si>
 </sst>
 </file>
@@ -425,21 +431,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BFC967-A307-3B41-839E-BEDF206AC75E}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -447,13 +454,16 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3.5199999999999997E-3</v>
       </c>
@@ -461,7 +471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3.6700000000000001E-3</v>
       </c>
@@ -469,7 +479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5.1900000000000002E-3</v>
       </c>
@@ -477,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6.7300000000000007E-3</v>
       </c>
@@ -485,7 +495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6.8700000000000011E-3</v>
       </c>
@@ -493,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7.2660000000000008E-3</v>
       </c>
@@ -501,7 +511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7.8200000000000006E-3</v>
       </c>
@@ -519,19 +529,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40FDC2B-390A-234D-A56A-4F6D4095C9A6}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -539,13 +551,16 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.51</v>
       </c>
@@ -553,7 +568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.42</v>
       </c>
@@ -561,7 +576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4.05</v>
       </c>
@@ -569,7 +584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6.1</v>
       </c>
@@ -577,7 +592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9.1999999999999993</v>
       </c>
@@ -585,7 +600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12.3</v>
       </c>
@@ -593,7 +608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>18.8</v>
       </c>
